--- a/設計書/基本設計/タスク管理/タスク更新.xlsx
+++ b/設計書/基本設計/タスク管理/タスク更新.xlsx
@@ -945,18 +945,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>task.start_datetime = start_datetime,</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>task.detail = detail,</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>task.end_datetime = end_datetime,</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>task.importance = importance,</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -970,6 +962,14 @@
   </si>
   <si>
     <t>task.task_id = task_id AND</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>task.start_date = start_date,</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>task.end_date = end_date,</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4521,32 +4521,32 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E37" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E38" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E42" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.15">
@@ -4556,7 +4556,7 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.15">
